--- a/Data for Development.xlsx
+++ b/Data for Development.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>bullets</t>
+  </si>
+  <si>
+    <t>speed potion</t>
+  </si>
+  <si>
+    <t>PowerUp</t>
   </si>
 </sst>
 </file>
@@ -589,10 +595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,6 +646,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -648,15 +662,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -691,6 +706,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data for Development.xlsx
+++ b/Data for Development.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -74,7 +74,10 @@
     <t>speed potion</t>
   </si>
   <si>
-    <t>PowerUp</t>
+    <t>PowerUp grabbed</t>
+  </si>
+  <si>
+    <t>PowerUp draw</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -604,6 +607,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,6 +655,14 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Data for Development.xlsx
+++ b/Data for Development.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -74,10 +74,7 @@
     <t>speed potion</t>
   </si>
   <si>
-    <t>PowerUp grabbed</t>
-  </si>
-  <si>
-    <t>PowerUp draw</t>
+    <t>Item draw</t>
   </si>
 </sst>
 </file>
@@ -598,7 +595,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -655,14 +652,6 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Data for Development.xlsx
+++ b/Data for Development.xlsx
@@ -9,7 +9,10 @@
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
     <sheet name="Object Code" sheetId="2" r:id="rId2"/>
-    <sheet name="Image ID" sheetId="3" r:id="rId3"/>
+    <sheet name="Client Player Message" sheetId="4" r:id="rId3"/>
+    <sheet name="Other Player Message" sheetId="5" r:id="rId4"/>
+    <sheet name="Bullet Message" sheetId="6" r:id="rId5"/>
+    <sheet name="Image ID" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -75,6 +78,96 @@
   </si>
   <si>
     <t>Item draw</t>
+  </si>
+  <si>
+    <t>add wall</t>
+  </si>
+  <si>
+    <t>remove wall</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>"000"</t>
+  </si>
+  <si>
+    <t>highest snapshot</t>
+  </si>
+  <si>
+    <t>client id</t>
+  </si>
+  <si>
+    <t>image id</t>
+  </si>
+  <si>
+    <t>sprite index</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>rotation</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>current weapon</t>
+  </si>
+  <si>
+    <t>item(empty/imageid)</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>is_invincible</t>
+  </si>
+  <si>
+    <t>speed_boost</t>
+  </si>
+  <si>
+    <t>damage_boost</t>
+  </si>
+  <si>
+    <t>visibility</t>
+  </si>
+  <si>
+    <t>"001"</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>xRatio</t>
+  </si>
+  <si>
+    <t>yRatio</t>
+  </si>
+  <si>
+    <t>interpolating entity</t>
   </si>
 </sst>
 </file>
@@ -595,10 +688,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,6 +748,40 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -662,6 +789,445 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/Data for Development.xlsx
+++ b/Data for Development.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -168,6 +168,36 @@
   </si>
   <si>
     <t>interpolating entity</t>
+  </si>
+  <si>
+    <t>M1911</t>
+  </si>
+  <si>
+    <t>Pistol</t>
+  </si>
+  <si>
+    <t>Remington 870</t>
+  </si>
+  <si>
+    <t>Sawed-Off Shotgun</t>
+  </si>
+  <si>
+    <t>SMG</t>
+  </si>
+  <si>
+    <t>Assault Rifle</t>
+  </si>
+  <si>
+    <t>Machine Gun</t>
+  </si>
+  <si>
+    <t>Smoke Grenade</t>
+  </si>
+  <si>
+    <t>Artillery</t>
+  </si>
+  <si>
+    <t>flags</t>
   </si>
 </sst>
 </file>
@@ -580,12 +610,12 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -609,15 +639,21 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -625,7 +661,9 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -633,7 +671,9 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -641,7 +681,9 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -649,7 +691,9 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -657,7 +701,9 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -665,7 +711,9 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -690,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1229,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,6 +1329,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data for Development.xlsx
+++ b/Data for Development.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,7 +1279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/Data for Development.xlsx
+++ b/Data for Development.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
     <sheet name="Object Code" sheetId="2" r:id="rId2"/>
     <sheet name="Client Player Message" sheetId="4" r:id="rId3"/>
     <sheet name="Other Player Message" sheetId="5" r:id="rId4"/>
-    <sheet name="Bullet Message" sheetId="6" r:id="rId5"/>
-    <sheet name="Image ID" sheetId="3" r:id="rId6"/>
+    <sheet name="Image ID" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -53,9 +52,6 @@
     <t>player</t>
   </si>
   <si>
-    <t>bullet</t>
-  </si>
-  <si>
     <t>sound</t>
   </si>
   <si>
@@ -77,9 +73,6 @@
     <t>speed potion</t>
   </si>
   <si>
-    <t>Item draw</t>
-  </si>
-  <si>
     <t>add wall</t>
   </si>
   <si>
@@ -152,21 +145,6 @@
     <t>visibility</t>
   </si>
   <si>
-    <t>"001"</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>xRatio</t>
-  </si>
-  <si>
-    <t>yRatio</t>
-  </si>
-  <si>
     <t>interpolating entity</t>
   </si>
   <si>
@@ -198,6 +176,9 @@
   </si>
   <si>
     <t>flags</t>
+  </si>
+  <si>
+    <t>game status</t>
   </si>
 </sst>
 </file>
@@ -609,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,10 +621,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -652,7 +633,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -662,7 +643,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -672,7 +653,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -682,7 +663,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -692,7 +673,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -702,7 +683,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -712,7 +693,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -738,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -777,24 +758,18 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -806,7 +781,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +789,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +797,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -851,10 +826,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -862,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -878,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -886,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -894,7 +869,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -902,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -910,7 +885,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,7 +893,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -934,7 +909,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -942,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -950,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -958,7 +933,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -966,7 +941,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -974,7 +949,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -982,7 +957,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,7 +965,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -998,7 +973,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1006,7 +981,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1014,7 +989,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1038,10 +1013,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1049,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1057,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1065,7 +1040,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1073,7 +1048,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1081,7 +1056,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1089,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1097,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1105,7 +1080,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1113,7 +1088,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1121,7 +1096,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1130,152 +1105,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1291,10 +1120,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1302,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1310,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1318,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1326,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1334,7 +1163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Data for Development.xlsx
+++ b/Data for Development.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
     <sheet name="Object Code" sheetId="2" r:id="rId2"/>
-    <sheet name="Client Player Message" sheetId="4" r:id="rId3"/>
-    <sheet name="Other Player Message" sheetId="5" r:id="rId4"/>
-    <sheet name="Image ID" sheetId="3" r:id="rId5"/>
+    <sheet name="XP Scaling" sheetId="6" r:id="rId3"/>
+    <sheet name="Client Player Message" sheetId="4" r:id="rId4"/>
+    <sheet name="Other Player Message" sheetId="5" r:id="rId5"/>
+    <sheet name="Image ID" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -179,6 +180,12 @@
   </si>
   <si>
     <t>game status</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>XP</t>
   </si>
 </sst>
 </file>
@@ -294,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -308,6 +315,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,7 +732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -812,6 +825,233 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -998,7 +1238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1104,7 +1344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>

--- a/Data for Development.xlsx
+++ b/Data for Development.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -732,7 +732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -828,7 +828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Data for Development.xlsx
+++ b/Data for Development.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>XP</t>
+  </si>
+  <si>
+    <t>particle effect</t>
+  </si>
+  <si>
+    <t>ground mask</t>
+  </si>
+  <si>
+    <t>ammo</t>
+  </si>
+  <si>
+    <t>boom</t>
   </si>
 </sst>
 </file>
@@ -732,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,10 +790,16 @@
       <c r="A5" s="8">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1346,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,6 +1424,30 @@
         <v>50</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
